--- a/data/performance_table.xlsx
+++ b/data/performance_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FAFE09-DABE-4D4C-80B2-57B6FAE8F340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73A4A94-3941-4400-BC34-BE61B0E22BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D4274541-EC8E-4474-A709-FD5F39791759}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>Index</t>
   </si>
   <si>
-    <t>abalone_benchmark_1231</t>
-  </si>
-  <si>
-    <t>abalone_benchmark_1232</t>
+    <t>Annthyroid</t>
+  </si>
+  <si>
+    <t>Arrhythmia</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/data/performance_table.xlsx
+++ b/data/performance_table.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,31 +407,10 @@
         <v xml:space="preserve"> Data</v>
       </c>
       <c r="B1" t="str">
-        <v>Index</v>
+        <v>LODA (5, 10)</v>
       </c>
       <c r="C1" t="str">
-        <v xml:space="preserve"> #Samples</v>
-      </c>
-      <c r="D1" t="str">
-        <v xml:space="preserve"> # Dimensions</v>
-      </c>
-      <c r="E1" t="str">
-        <v xml:space="preserve"> Outlier Perc</v>
-      </c>
-      <c r="F1" t="str">
-        <v>LODA (5, 10)</v>
-      </c>
-      <c r="G1" t="str">
         <v>LOF (70, 'euclidean')</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Max</v>
-      </c>
-      <c r="I1" t="str">
-        <v>97% Max</v>
-      </c>
-      <c r="J1" t="str">
-        <v>tolerance</v>
       </c>
     </row>
     <row r="2">
@@ -439,31 +418,10 @@
         <v>Annthyroid</v>
       </c>
       <c r="B2" t="str">
-        <v>1</v>
+        <v>0.11314</v>
       </c>
       <c r="C2" t="str">
-        <v>1986</v>
-      </c>
-      <c r="D2" t="str">
-        <v>15</v>
-      </c>
-      <c r="E2" t="str">
-        <v>5.0352</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0.11314</v>
-      </c>
-      <c r="G2" t="str">
         <v>0.0906</v>
-      </c>
-      <c r="H2" t="str">
-        <v>0.11314</v>
-      </c>
-      <c r="I2" t="str">
-        <v>0.1097458</v>
-      </c>
-      <c r="J2" t="str">
-        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -471,36 +429,15 @@
         <v>Arrhythmia</v>
       </c>
       <c r="B3" t="str">
-        <v>1</v>
+        <v>0.09884</v>
       </c>
       <c r="C3" t="str">
-        <v>1986</v>
-      </c>
-      <c r="D3" t="str">
-        <v>15</v>
-      </c>
-      <c r="E3" t="str">
-        <v>5.0352</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0.09884</v>
-      </c>
-      <c r="G3" t="str">
         <v>0.0745</v>
-      </c>
-      <c r="H3" t="str">
-        <v>0.09884</v>
-      </c>
-      <c r="I3" t="str">
-        <v>0.0958748</v>
-      </c>
-      <c r="J3" t="str">
-        <v>0.03</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/performance_table.xlsx
+++ b/data/performance_table.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +418,10 @@
         <v>Annthyroid</v>
       </c>
       <c r="B2" t="str">
-        <v>0.11314</v>
+        <v>0.0593</v>
       </c>
       <c r="C2" t="str">
-        <v>0.0906</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="3">
@@ -429,15 +429,235 @@
         <v>Arrhythmia</v>
       </c>
       <c r="B3" t="str">
-        <v>0.09884</v>
+        <v>0.1753</v>
       </c>
       <c r="C3" t="str">
-        <v>0.0745</v>
+        <v>0.3798</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Breastw</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0.6431</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0.3453</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Glass</v>
+      </c>
+      <c r="B5" t="str">
+        <v>0.0411</v>
+      </c>
+      <c r="C5" t="str">
+        <v>0.1092</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Ionosphere</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0.7711</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0.8635</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Letter</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0.113</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0.2714</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Lympho</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0.2946</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0.8012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Mammography</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0.1886</v>
+      </c>
+      <c r="C9" t="str">
+        <v>0.1381</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Mnist</v>
+      </c>
+      <c r="B10" t="str">
+        <v>0.107</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0.3401</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Musk</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0.138</v>
+      </c>
+      <c r="C11" t="str">
+        <v>0.0836</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Optdigits</v>
+      </c>
+      <c r="B12" t="str">
+        <v>0.0172</v>
+      </c>
+      <c r="C12" t="str">
+        <v>0.0222</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Pendigits</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0.1309</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0.0282</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Pima</v>
+      </c>
+      <c r="B14" t="str">
+        <v>0.5441</v>
+      </c>
+      <c r="C14" t="str">
+        <v>0.4686</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Satellite</v>
+      </c>
+      <c r="B15" t="str">
+        <v>0.2217</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0.3958</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>SatImage-2</v>
+      </c>
+      <c r="B16" t="str">
+        <v>0.5139</v>
+      </c>
+      <c r="C16" t="str">
+        <v>0.0422</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Shuttle</v>
+      </c>
+      <c r="B17" t="str">
+        <v>0.4371</v>
+      </c>
+      <c r="C17" t="str">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Speech</v>
+      </c>
+      <c r="B18" t="str">
+        <v>0.0184</v>
+      </c>
+      <c r="C18" t="str">
+        <v>0.0194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Thyroid</v>
+      </c>
+      <c r="B19" t="str">
+        <v>0.0151</v>
+      </c>
+      <c r="C19" t="str">
+        <v>0.2832</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Vertebral</v>
+      </c>
+      <c r="B20" t="str">
+        <v>0.0886</v>
+      </c>
+      <c r="C20" t="str">
+        <v>0.0847</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Vowels</v>
+      </c>
+      <c r="B21" t="str">
+        <v>0.0274</v>
+      </c>
+      <c r="C21" t="str">
+        <v>0.4071</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Wbc</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0.4221</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0.5965</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Wine</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0.633</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0.3367</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C23"/>
   </ignoredErrors>
 </worksheet>
 </file>